--- a/example/Example.xlsx
+++ b/example/Example.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milhound/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milhound/Development/Logistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="31440" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/example/Example.xlsx
+++ b/example/Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="31440" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="8820" windowWidth="31440" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
-  <si>
-    <t>11130 Test Avenue</t>
-  </si>
-  <si>
-    <t>Hollywood, CA</t>
-  </si>
-  <si>
-    <t>11130 Rue du test</t>
-  </si>
-  <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
-    <t>10000 Airline Road</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Forwarder</t>
   </si>
@@ -56,12 +41,6 @@
     <t xml:space="preserve">Airline </t>
   </si>
   <si>
-    <t>134154 Road</t>
-  </si>
-  <si>
-    <t>Houston, TX</t>
-  </si>
-  <si>
     <t>Pieces</t>
   </si>
   <si>
@@ -80,18 +59,12 @@
     <t>H</t>
   </si>
   <si>
-    <t>10"</t>
-  </si>
-  <si>
     <t>Ultimate Destination</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>Airway Bill Number</t>
-  </si>
-  <si>
     <t>000-0000-0000</t>
   </si>
   <si>
@@ -101,21 +74,9 @@
     <t>A-1000-16</t>
   </si>
   <si>
-    <t>Additional Charge Code</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
     <t>Ammount</t>
   </si>
   <si>
@@ -125,22 +86,88 @@
     <t>Daniel Milholland</t>
   </si>
   <si>
-    <t>Handling Information</t>
-  </si>
-  <si>
     <t>ETA CDG: 08:50/2ND of May</t>
   </si>
   <si>
-    <t>Accounting Information</t>
-  </si>
-  <si>
     <t>Freight Prepaid</t>
   </si>
   <si>
-    <t>Equation Service</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
+    <t>Test Shipper</t>
+  </si>
+  <si>
+    <t>Test Consginee</t>
+  </si>
+  <si>
+    <t>Test Ariline</t>
+  </si>
+  <si>
+    <t>Test Forwarder</t>
+  </si>
+  <si>
+    <t>AWB</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Customs</t>
+  </si>
+  <si>
+    <t>NVD</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>AF/639/16TH</t>
+  </si>
+  <si>
+    <t>Via-1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Carrier-1</t>
+  </si>
+  <si>
+    <t>Via-2</t>
+  </si>
+  <si>
+    <t>Carrier-2</t>
+  </si>
+  <si>
+    <t>Chargeable</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
   </si>
 </sst>
 </file>
@@ -181,7 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,190 +488,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1">
+        <v>200</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>42507</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>200</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2">
-        <v>42507</v>
-      </c>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3">
-        <v>28.5</v>
-      </c>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X4" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5">
-        <v>30</v>
-      </c>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/Example.xlsx
+++ b/example/Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="8820" windowWidth="31440" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="4000" windowWidth="31440" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Forwarder</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">Shipper </t>
   </si>
   <si>
-    <t xml:space="preserve">Consginee </t>
-  </si>
-  <si>
     <t xml:space="preserve">Airline </t>
   </si>
   <si>
@@ -168,6 +165,27 @@
   </si>
   <si>
     <t>Unit Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consignee </t>
+  </si>
+  <si>
+    <t>Departing</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Flight-1</t>
+  </si>
+  <si>
+    <t>Flight-2</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,212 +519,236 @@
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="15" width="22.83203125" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="22.83203125" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>200</v>
+      </c>
+      <c r="V2" s="1">
+        <v>200</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>200</v>
-      </c>
-      <c r="S2" s="1">
-        <v>200</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="AB2" s="1">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="X4" s="1"/>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="X5" s="1"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/Example.xlsx
+++ b/example/Example.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Forwarder</t>
   </si>
@@ -186,6 +186,39 @@
   </si>
   <si>
     <t>Flight-2</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Oilwell Supplies</t>
+  </si>
+  <si>
+    <t>PO# 101-16-05-111</t>
+  </si>
+  <si>
+    <t>Handling-2</t>
+  </si>
+  <si>
+    <t>INV# 16P001.01-CM001</t>
+  </si>
+  <si>
+    <t>Handling-3</t>
+  </si>
+  <si>
+    <t>Nature-2</t>
+  </si>
+  <si>
+    <t>Nature-3</t>
+  </si>
+  <si>
+    <t>Nature-4</t>
+  </si>
+  <si>
+    <t>Nature-5</t>
+  </si>
+  <si>
+    <t>AES ITN: XXXXXXXXXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -506,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="X1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,12 +554,17 @@
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="18" width="22.83203125" customWidth="1"/>
     <col min="19" max="19" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="24.1640625" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.83203125" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" customWidth="1"/>
+    <col min="34" max="34" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,52 +623,73 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,67 +747,87 @@
       <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>200</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <v>200</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <v>1.75</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AI2" s="1">
         <v>50</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AO2" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AA4" s="1"/>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AA5" s="1"/>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AH5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
